--- a/PROJECTS MACRO/Performance/Resume WO Performance All/Performance WO Purchasing 2024.xlsx
+++ b/PROJECTS MACRO/Performance/Resume WO Performance All/Performance WO Purchasing 2024.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\Bersama\IT\RPA Purchasing\WO Purchasing\Performance\Resume WO Performance All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E17AD422-C3BA-4FF0-BED9-2EF7D2BAD715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A1E6BD0-7D59-4F4E-A374-7261E722885C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1290" windowWidth="10335" windowHeight="10230" xr2:uid="{679DBFA6-D794-49A0-BCB3-60DF91821575}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D8CAF837-4EB0-4FE7-95F5-E1609B1D0548}"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTS" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>WO PURCHASING - MONTHLY</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>WO PURCHASING - MONTHLY 2024</t>
   </si>
   <si>
     <t>NO</t>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Januari</t>
+  </si>
+  <si>
+    <t>Februari</t>
+  </si>
+  <si>
+    <t>Maret</t>
   </si>
   <si>
     <t>AVERAGE</t>
@@ -246,8 +252,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285465</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>907232</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>88631</xdr:rowOff>
     </xdr:to>
@@ -256,7 +262,7 @@
         <xdr:cNvPr id="2" name="Chart_PIC">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B595EB82-1F0D-4D4E-9E4C-54C8906AE0B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510329A6-A430-4ECB-BC45-4F8F205CCA0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -273,7 +279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="495300" y="2619375"/>
-          <a:ext cx="5505165" cy="2755631"/>
+          <a:ext cx="5212532" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -581,9 +587,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFD2AED-0A30-4B97-AB54-25CB57DEA047}">
-  <sheetPr codeName="Sheet55"/>
-  <dimension ref="B2:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013DBE00-EAB4-44F6-87DF-133E75503AFE}">
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,11 +597,11 @@
     <col min="1" max="2" width="3.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,8 +610,10 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -619,111 +626,159 @@
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6">
-        <v>0.93346128219011948</v>
+        <v>0.93342783581187216</v>
       </c>
       <c r="F5" s="6">
-        <v>0.93346128219011948</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.99487082066869292</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.75967797989431418</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.89599221212495983</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" s="7">
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" s="9">
         <v>0.92888617061333789</v>
       </c>
       <c r="F6" s="9">
-        <v>0.92888617061333789</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.96058675708642449</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.76426940891765505</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.88458077887247244</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" s="7">
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" s="9">
-        <v>0.94027650239405414</v>
+        <v>0.94024377131261916</v>
       </c>
       <c r="F7" s="9">
-        <v>0.94027650239405414</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.95977447568873042</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.86667540351784389</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.92223121683973108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" s="7">
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="9">
         <v>0.97898187665344416</v>
       </c>
       <c r="F8" s="9">
-        <v>0.97898187665344416</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.98395969296420782</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.94579641353170074</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.96957932771645083</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="7">
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9">
         <v>0.95046842093846418</v>
       </c>
       <c r="F9" s="9">
-        <v>0.95046842093846418</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.93925360006248715</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.90790723750279367</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.93254308616791504</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" s="7">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" s="9">
         <v>0.98091603053435117</v>
       </c>
       <c r="F10" s="9">
-        <v>0.98091603053435117</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.97031251740462265</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.98374284931299127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" s="7">
         <v>7</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" s="9">
         <v>0.95962339906085581</v>
       </c>
       <c r="F11" s="9">
-        <v>0.95962339906085581</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.97738216509014475</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.85576923076923073</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.93092493164007717</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
